--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/批发零售贸易、住宿和餐饮业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/批发零售贸易、住宿和餐饮业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,316 +558,237 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.475367255635203</v>
+        <v>0.402987183642584</v>
       </c>
       <c r="D2" t="n">
-        <v>0.017433746429916</v>
+        <v>0.009121967227249001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02566936365466</v>
+        <v>0.016791473511592</v>
       </c>
       <c r="F2" t="n">
-        <v>0.040887785755827</v>
+        <v>0.038652857384774</v>
       </c>
       <c r="G2" t="n">
-        <v>0.131197194722594</v>
+        <v>0.205232798580084</v>
       </c>
       <c r="H2" t="n">
-        <v>0.010482856662322</v>
+        <v>0.008227475419328001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.040415923064431</v>
+        <v>0.047080460768175</v>
       </c>
       <c r="J2" t="n">
-        <v>0.524632744364797</v>
+        <v>0.597012816357416</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002923423559779</v>
+        <v>0.002385645875001</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06551057566342</v>
+        <v>0.052149983822983</v>
       </c>
       <c r="M2" t="n">
-        <v>0.032245017177434</v>
+        <v>0.024577288793897</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02860450692937</v>
+        <v>0.017832389003183</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006127030684434</v>
+        <v>0.003738135354569</v>
       </c>
       <c r="P2" t="n">
-        <v>0.110435873464947</v>
+        <v>0.143015503712452</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.020358409154194</v>
+        <v>0.016646590107191</v>
       </c>
       <c r="R2" t="n">
-        <v>0.011092862707233</v>
+        <v>0.009189505337646999</v>
       </c>
       <c r="S2" t="n">
-        <v>0.242583753112826</v>
+        <v>0.201684053296705</v>
       </c>
       <c r="T2" t="n">
-        <v>0.073132577004258</v>
+        <v>0.055318025322008</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001265861761984</v>
+        <v>0.00041337641218</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001315929522192</v>
+        <v>0.000963659117526</v>
       </c>
       <c r="W2" t="n">
-        <v>0.032250200318341</v>
+        <v>0.026986759360379</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0008007852084790001</v>
+        <v>0.000854344844464</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.105266323441359</v>
+        <v>0.119137706748613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.402987183642584</v>
+        <v>0.378280049665963</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009121967227249001</v>
+        <v>0.009265157291110999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.016791473511592</v>
+        <v>0.012073160412314</v>
       </c>
       <c r="F3" t="n">
-        <v>0.038652857384774</v>
+        <v>0.027234819643515</v>
       </c>
       <c r="G3" t="n">
-        <v>0.205232798580084</v>
+        <v>0.221796456436968</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008227475419328001</v>
+        <v>0.003699838181794</v>
       </c>
       <c r="I3" t="n">
-        <v>0.047080460768175</v>
+        <v>0.040431037736453</v>
       </c>
       <c r="J3" t="n">
-        <v>0.597012816357416</v>
+        <v>0.621719950334037</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002385645875001</v>
+        <v>0.002906745416801</v>
       </c>
       <c r="L3" t="n">
-        <v>0.052149983822983</v>
+        <v>0.107044850841829</v>
       </c>
       <c r="M3" t="n">
-        <v>0.024577288793897</v>
+        <v>0.04058310303193</v>
       </c>
       <c r="N3" t="n">
-        <v>0.017832389003183</v>
+        <v>0.01346313853868</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003738135354569</v>
+        <v>0.003742041175811</v>
       </c>
       <c r="P3" t="n">
-        <v>0.143015503712452</v>
+        <v>0.179772919215415</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.016646590107191</v>
+        <v>0.010584223974021</v>
       </c>
       <c r="R3" t="n">
-        <v>0.009189505337646999</v>
+        <v>0.003354533400103</v>
       </c>
       <c r="S3" t="n">
-        <v>0.201684053296705</v>
+        <v>0.179719536945201</v>
       </c>
       <c r="T3" t="n">
-        <v>0.055318025322008</v>
+        <v>0.033948532961485</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00041337641218</v>
+        <v>4.1108726229e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>0.000963659117526</v>
+        <v>0.00041095116283</v>
       </c>
       <c r="W3" t="n">
-        <v>0.026986759360379</v>
+        <v>0.033082486438525</v>
       </c>
       <c r="X3" t="n">
-        <v>0.000854344844464</v>
+        <v>0.000155288039274</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.119137706748613</v>
+        <v>0.076690070429713</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.378280049665963</v>
+        <v>0.420119601156652</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009265157291110999</v>
+        <v>0.009459570304798</v>
       </c>
       <c r="E4" t="n">
-        <v>0.012073160412314</v>
+        <v>0.013259885235853</v>
       </c>
       <c r="F4" t="n">
-        <v>0.027234819643515</v>
+        <v>0.026603034201203</v>
       </c>
       <c r="G4" t="n">
-        <v>0.221796456436968</v>
+        <v>0.269646324034724</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003699838181794</v>
+        <v>0.003081815772758</v>
       </c>
       <c r="I4" t="n">
-        <v>0.040431037736453</v>
+        <v>0.028783589742433</v>
       </c>
       <c r="J4" t="n">
-        <v>0.621719950334037</v>
+        <v>0.579880398843348</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002906745416801</v>
+        <v>0.002574400422731</v>
       </c>
       <c r="L4" t="n">
-        <v>0.107044850841829</v>
+        <v>0.147858232898644</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04058310303193</v>
+        <v>0.042940437463338</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01346313853868</v>
+        <v>0.015767489028435</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003742041175811</v>
+        <v>0.00249146237749</v>
       </c>
       <c r="P4" t="n">
-        <v>0.179772919215415</v>
+        <v>0.121467067174174</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.010584223974021</v>
+        <v>0.008166352614623999</v>
       </c>
       <c r="R4" t="n">
-        <v>0.003354533400103</v>
+        <v>0.003120316283251</v>
       </c>
       <c r="S4" t="n">
-        <v>0.179719536945201</v>
+        <v>0.159983417892017</v>
       </c>
       <c r="T4" t="n">
-        <v>0.033948532961485</v>
+        <v>0.035682408060645</v>
       </c>
       <c r="U4" t="n">
-        <v>4.1108726229e-05</v>
+        <v>1.9698406498e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>0.00041095116283</v>
+        <v>0.000332369467938</v>
       </c>
       <c r="W4" t="n">
-        <v>0.033082486438525</v>
+        <v>0.033835639745884</v>
       </c>
       <c r="X4" t="n">
-        <v>0.000155288039274</v>
+        <v>0.00011765252843</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.076690070429713</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.420119601156652</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.009459570304798</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.013259885235853</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.026603034201203</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.269646324034724</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.003081815772758</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.028783589742433</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.579880398843348</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.002574400422731</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.147858232898644</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.042940437463338</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.015767489028435</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.00249146237749</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.121467067174174</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.008166352614623999</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.003120316283251</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.159983417892017</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.035682408060645</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.9698406498e-05</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.000332369467938</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.033835639745884</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.00011765252843</v>
-      </c>
-      <c r="Y5" t="n">
         <v>0.074808836344133</v>
       </c>
     </row>
